--- a/Artefato 31 OPE - Requisitos de Software do Subsistema (SRS).xlsx
+++ b/Artefato 31 OPE - Requisitos de Software do Subsistema (SRS).xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arian\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eed59d4ebf12600b/Documentos/Projeto/Faculdade/Silpan-AMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDF7FC0-B875-4ED8-88CA-DA380ED228CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{1FDF7FC0-B875-4ED8-88CA-DA380ED228CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9EC1D5B6-4702-4007-AED1-B322BAEAD8AF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{722396AB-12E8-4CE8-96A8-58F6DF15ACC8}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{722396AB-12E8-4CE8-96A8-58F6DF15ACC8}"/>
   </bookViews>
   <sheets>
     <sheet name="modelo_01" sheetId="1" r:id="rId1"/>
-    <sheet name="modelo_02" sheetId="2" r:id="rId2"/>
+    <sheet name="modelo_01 Antigo" sheetId="3" r:id="rId2"/>
+    <sheet name="modelo_02" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
   <si>
     <t>- (18) Descrição dos Processo de Negócio)</t>
   </si>
@@ -347,7 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -362,9 +363,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -372,6 +370,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -698,9 +702,188 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
+  <dimension ref="B4:E28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="66.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1" display="http://walderson.com/IBM/RUP7/LargeProjects/core.base_rup/tasks/use_case_analysis_A6990185.html" xr:uid="{8334008F-AB75-4731-A362-68FFB946055D}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD70439E-31EA-4A5F-ADD5-4473C0372831}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="B4:F28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -733,13 +916,13 @@
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="12"/>
       <c r="F8" s="2" t="s">
         <v>17</v>
       </c>
@@ -942,20 +1125,19 @@
   <mergeCells count="1">
     <mergeCell ref="C8:D8"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" display="http://walderson.com/IBM/RUP7/LargeProjects/core.base_rup/tasks/use_case_analysis_A6990185.html" xr:uid="{8334008F-AB75-4731-A362-68FFB946055D}"/>
+    <hyperlink ref="F8" r:id="rId1" display="http://walderson.com/IBM/RUP7/LargeProjects/core.base_rup/tasks/use_case_analysis_A6990185.html" xr:uid="{2BDFCCB9-DD57-42DC-9097-0E79E2834FE2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB3D808-12A7-462D-99C0-0BA22A08B5CC}">
   <dimension ref="B1:D22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -968,13 +1150,13 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">

--- a/Artefato 31 OPE - Requisitos de Software do Subsistema (SRS).xlsx
+++ b/Artefato 31 OPE - Requisitos de Software do Subsistema (SRS).xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eed59d4ebf12600b/Documentos/Projeto/Faculdade/Silpan-AMS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arian\silpan_novo\Silpan-AMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{1FDF7FC0-B875-4ED8-88CA-DA380ED228CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9EC1D5B6-4702-4007-AED1-B322BAEAD8AF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5389C23F-719F-4CA4-A100-897E82639B61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{722396AB-12E8-4CE8-96A8-58F6DF15ACC8}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{722396AB-12E8-4CE8-96A8-58F6DF15ACC8}"/>
   </bookViews>
   <sheets>
     <sheet name="modelo_01" sheetId="1" r:id="rId1"/>
-    <sheet name="modelo_01 Antigo" sheetId="3" r:id="rId2"/>
-    <sheet name="modelo_02" sheetId="2" r:id="rId3"/>
+    <sheet name="modelo_01 Antigo" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="modelo_02" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="68">
   <si>
     <t>- (18) Descrição dos Processo de Negócio)</t>
   </si>
@@ -213,6 +213,33 @@
   </si>
   <si>
     <t>a interface do sistema deve exibir o numero do pedido com o resumo do pedido.</t>
+  </si>
+  <si>
+    <t>O sistema deve apresentar as informações do produto.</t>
+  </si>
+  <si>
+    <t>O sistema deve exibir o catálogo mais recente para o cliente.</t>
+  </si>
+  <si>
+    <t>O sistema deve permitir que o cliente selecione o produto desejado.</t>
+  </si>
+  <si>
+    <t>O sistema deve gerar o orçamento após o cliente clicar em continuar.</t>
+  </si>
+  <si>
+    <t>O sistema deve solicitar a confirmação de endereço após o cliente clicar em continuar.</t>
+  </si>
+  <si>
+    <t>O sistema deve exibir as formas de pagamento disponiveis.</t>
+  </si>
+  <si>
+    <t>O sistema deve informar a situação do pagamento.</t>
+  </si>
+  <si>
+    <t>O sistema deve gerar um comprovante para o cliente.</t>
+  </si>
+  <si>
+    <t>O sistema deve exibir os produtos selecionados, o resumo da compra e permitir que o cliente clique em continuar</t>
   </si>
 </sst>
 </file>
@@ -366,10 +393,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -704,12 +731,13 @@
   </sheetPr>
   <dimension ref="B4:E28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="66.28515625" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" customWidth="1"/>
@@ -739,7 +767,7 @@
       <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -750,55 +778,73 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
@@ -883,7 +929,7 @@
   </sheetPr>
   <dimension ref="B4:F28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -1150,7 +1196,7 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="13" t="s">

--- a/Artefato 31 OPE - Requisitos de Software do Subsistema (SRS).xlsx
+++ b/Artefato 31 OPE - Requisitos de Software do Subsistema (SRS).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arian\silpan_novo\Silpan-AMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5389C23F-719F-4CA4-A100-897E82639B61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E5D780-F4CC-4EB9-91A0-9DBF016CD744}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{722396AB-12E8-4CE8-96A8-58F6DF15ACC8}"/>
   </bookViews>
@@ -731,8 +731,8 @@
   </sheetPr>
   <dimension ref="B4:E28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Artefato 31 OPE - Requisitos de Software do Subsistema (SRS).xlsx
+++ b/Artefato 31 OPE - Requisitos de Software do Subsistema (SRS).xlsx
@@ -8,7 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arian\silpan_novo\Silpan-AMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E5D780-F4CC-4EB9-91A0-9DBF016CD744}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DDA5E5-9640-41B1-9596-F3D2C76AC009}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="FFtbXZ3xP7WzWUcC1OaZ0rh3GtQQYT6hu1tL4mSLyHFIkgOXX6jbrfTOLD33zTJI9Q9G/r5iWSOQBaaL15BPrw==" workbookSaltValue="gI54/740WBCdyLU8am78+w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{722396AB-12E8-4CE8-96A8-58F6DF15ACC8}"/>
   </bookViews>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
   <si>
     <t>- (18) Descrição dos Processo de Negócio)</t>
   </si>
@@ -230,9 +231,6 @@
     <t>O sistema deve solicitar a confirmação de endereço após o cliente clicar em continuar.</t>
   </si>
   <si>
-    <t>O sistema deve exibir as formas de pagamento disponiveis.</t>
-  </si>
-  <si>
     <t>O sistema deve informar a situação do pagamento.</t>
   </si>
   <si>
@@ -240,6 +238,21 @@
   </si>
   <si>
     <t>O sistema deve exibir os produtos selecionados, o resumo da compra e permitir que o cliente clique em continuar</t>
+  </si>
+  <si>
+    <t>O sistema deve redirecionar o cliente para realização de pagamento.</t>
+  </si>
+  <si>
+    <t>RN 017</t>
+  </si>
+  <si>
+    <t>RN 08,09,15</t>
+  </si>
+  <si>
+    <t>RN 019,20,21</t>
+  </si>
+  <si>
+    <t>RN 09</t>
   </si>
 </sst>
 </file>
@@ -375,7 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -411,6 +424,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -729,17 +743,18 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B4:E28"/>
+  <dimension ref="B4:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="66.28515625" customWidth="1"/>
+    <col min="3" max="3" width="58.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -781,13 +796,19 @@
       <c r="C9" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -797,13 +818,19 @@
       <c r="C11" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>62</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -811,7 +838,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -821,13 +851,19 @@
       <c r="C14" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
@@ -835,7 +871,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -843,74 +882,8 @@
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="3"/>
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Artefato 31 OPE - Requisitos de Software do Subsistema (SRS).xlsx
+++ b/Artefato 31 OPE - Requisitos de Software do Subsistema (SRS).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arian\silpan_novo\Silpan-AMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DDA5E5-9640-41B1-9596-F3D2C76AC009}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03008A9-A48E-405D-9E44-C145C584DA73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="FFtbXZ3xP7WzWUcC1OaZ0rh3GtQQYT6hu1tL4mSLyHFIkgOXX6jbrfTOLD33zTJI9Q9G/r5iWSOQBaaL15BPrw==" workbookSaltValue="gI54/740WBCdyLU8am78+w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{722396AB-12E8-4CE8-96A8-58F6DF15ACC8}"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
   <si>
     <t>- (18) Descrição dos Processo de Negócio)</t>
   </si>
@@ -229,9 +229,6 @@
   </si>
   <si>
     <t>O sistema deve solicitar a confirmação de endereço após o cliente clicar em continuar.</t>
-  </si>
-  <si>
-    <t>O sistema deve informar a situação do pagamento.</t>
   </si>
   <si>
     <t>O sistema deve gerar um comprovante para o cliente.</t>
@@ -412,6 +409,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -424,7 +422,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -743,10 +740,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B4:E17"/>
+  <dimension ref="B4:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +794,7 @@
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -808,7 +805,7 @@
         <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -819,7 +816,7 @@
         <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -829,8 +826,8 @@
       <c r="C12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>69</v>
+      <c r="D12" s="11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -838,10 +835,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -852,7 +849,7 @@
         <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -860,10 +857,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
@@ -872,17 +869,6 @@
       </c>
       <c r="C16" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -938,10 +924,10 @@
       <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="13"/>
       <c r="F8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1172,10 +1158,10 @@
       <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">

--- a/Artefato 31 OPE - Requisitos de Software do Subsistema (SRS).xlsx
+++ b/Artefato 31 OPE - Requisitos de Software do Subsistema (SRS).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arian\silpan_novo\Silpan-AMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03008A9-A48E-405D-9E44-C145C584DA73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EF928B-3600-4807-95CF-1B9FE9C1B9AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="FFtbXZ3xP7WzWUcC1OaZ0rh3GtQQYT6hu1tL4mSLyHFIkgOXX6jbrfTOLD33zTJI9Q9G/r5iWSOQBaaL15BPrw==" workbookSaltValue="gI54/740WBCdyLU8am78+w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{722396AB-12E8-4CE8-96A8-58F6DF15ACC8}"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
   <si>
     <t>- (18) Descrição dos Processo de Negócio)</t>
   </si>
@@ -229,9 +229,6 @@
   </si>
   <si>
     <t>O sistema deve solicitar a confirmação de endereço após o cliente clicar em continuar.</t>
-  </si>
-  <si>
-    <t>O sistema deve gerar um comprovante para o cliente.</t>
   </si>
   <si>
     <t>O sistema deve exibir os produtos selecionados, o resumo da compra e permitir que o cliente clique em continuar</t>
@@ -740,7 +737,7 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B4:E16"/>
+  <dimension ref="B4:E15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="A16:XFD16"/>
@@ -794,7 +791,7 @@
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -805,7 +802,7 @@
         <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -816,7 +813,7 @@
         <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -827,7 +824,7 @@
         <v>62</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -835,10 +832,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -849,7 +846,7 @@
         <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -857,18 +854,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Artefato 31 OPE - Requisitos de Software do Subsistema (SRS).xlsx
+++ b/Artefato 31 OPE - Requisitos de Software do Subsistema (SRS).xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arian\silpan_novo\Silpan-AMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\re041584\OneDrive\Documentos\Impacta\Análise e Modelagem de Sistemas\Silpan-AMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EF928B-3600-4807-95CF-1B9FE9C1B9AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="FFtbXZ3xP7WzWUcC1OaZ0rh3GtQQYT6hu1tL4mSLyHFIkgOXX6jbrfTOLD33zTJI9Q9G/r5iWSOQBaaL15BPrw==" workbookSaltValue="gI54/740WBCdyLU8am78+w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{722396AB-12E8-4CE8-96A8-58F6DF15ACC8}"/>
+    <workbookView xWindow="-120" yWindow="936" windowWidth="20736" windowHeight="11316"/>
   </bookViews>
   <sheets>
     <sheet name="modelo_01" sheetId="1" r:id="rId1"/>
     <sheet name="modelo_01 Antigo" sheetId="3" state="hidden" r:id="rId2"/>
     <sheet name="modelo_02" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
   <si>
     <t>- (18) Descrição dos Processo de Negócio)</t>
   </si>
@@ -235,24 +234,12 @@
   </si>
   <si>
     <t>O sistema deve redirecionar o cliente para realização de pagamento.</t>
-  </si>
-  <si>
-    <t>RN 017</t>
-  </si>
-  <si>
-    <t>RN 08,09,15</t>
-  </si>
-  <si>
-    <t>RN 019,20,21</t>
-  </si>
-  <si>
-    <t>RN 09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -382,7 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -406,7 +393,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -733,145 +719,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB37B814-EAE7-4464-8829-0A49C0029752}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B4:E15"/>
+  <dimension ref="B7:C15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="A16:XFD16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="B7:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="58.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="58.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D15" t="s">
-        <v>68</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" display="http://walderson.com/IBM/RUP7/LargeProjects/core.base_rup/tasks/use_case_analysis_A6990185.html" xr:uid="{8334008F-AB75-4731-A362-68FFB946055D}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD70439E-31EA-4A5F-ADD5-4473C0372831}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -881,47 +819,47 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="66.28515625" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="66.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="12"/>
       <c r="F8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -930,7 +868,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,7 +879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -952,7 +890,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -963,7 +901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -974,7 +912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
@@ -985,7 +923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
@@ -996,7 +934,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1007,7 +945,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,7 +956,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1029,7 +967,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1040,7 +978,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
@@ -1051,7 +989,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
@@ -1062,7 +1000,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1073,42 +1011,42 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>38</v>
       </c>
@@ -1120,7 +1058,7 @@
     <mergeCell ref="C8:D8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" display="http://walderson.com/IBM/RUP7/LargeProjects/core.base_rup/tasks/use_case_analysis_A6990185.html" xr:uid="{2BDFCCB9-DD57-42DC-9097-0E79E2834FE2}"/>
+    <hyperlink ref="F8" r:id="rId1" display="http://walderson.com/IBM/RUP7/LargeProjects/core.base_rup/tasks/use_case_analysis_A6990185.html"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1128,31 +1066,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB3D808-12A7-462D-99C0-0BA22A08B5CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="52.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="52.44140625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="15"/>
-    </row>
-    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1161,7 +1099,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1170,7 +1108,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1179,7 +1117,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,7 +1126,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1197,105 +1135,105 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
